--- a/ThesisMaeaurements/OsamuExp/OSKT - SU8 PEO 0.25 wtp/OSKT - SU8 PEO 0.25 wtp.xlsx
+++ b/ThesisMaeaurements/OsamuExp/OSKT - SU8 PEO 0.25 wtp/OSKT - SU8 PEO 0.25 wtp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083FBA7-9D00-4F16-BAA4-757FC7E97189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -116,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,12 +143,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,6 +181,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,7 +218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -496,14 +512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -552,7 +568,7 @@
       <c r="B3" s="3">
         <v>6.2063500000000002E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>1.7172799999999999</v>
       </c>
       <c r="D3" s="2">
@@ -572,7 +588,7 @@
       <c r="B4" s="3">
         <v>7.8070400000000003E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>1.2444999999999999</v>
       </c>
       <c r="D4" s="2">
@@ -592,7 +608,7 @@
       <c r="B5" s="3">
         <v>9.8292099999999997E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.98183799999999999</v>
       </c>
       <c r="D5" s="2">
@@ -612,7 +628,7 @@
       <c r="B6" s="2">
         <v>1.23664E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>0.85329900000000003</v>
       </c>
       <c r="D6" s="2">
@@ -632,7 +648,7 @@
       <c r="B7" s="2">
         <v>1.5577000000000001E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>0.71541600000000005</v>
       </c>
       <c r="D7" s="2">
@@ -652,7 +668,7 @@
       <c r="B8" s="2">
         <v>1.9611E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>0.58861699999999995</v>
       </c>
       <c r="D8" s="2">
@@ -672,7 +688,7 @@
       <c r="B9" s="2">
         <v>2.46865E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>0.46977200000000002</v>
       </c>
       <c r="D9" s="2">
@@ -692,7 +708,7 @@
       <c r="B10" s="2">
         <v>3.1073300000000002E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>0.40720600000000001</v>
       </c>
       <c r="D10" s="2">
@@ -712,7 +728,7 @@
       <c r="B11" s="2">
         <v>3.91185E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>0.35229899999999997</v>
       </c>
       <c r="D11" s="2">
@@ -732,7 +748,7 @@
       <c r="B12" s="2">
         <v>4.9251799999999998E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>0.26897900000000002</v>
       </c>
       <c r="D12" s="2">
@@ -1031,12 +1047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1044,14 +1060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
